--- a/excel/1.xlsx
+++ b/excel/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\wp\code\go-common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E027D49-99F3-40C2-B079-CB5E55533E26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1114B729-2883-474B-86C7-5034D8180244}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/1.xlsx
+++ b/excel/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\wp\code\go-common\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wp\go-common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1114B729-2883-474B-86C7-5034D8180244}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C430C0-528D-4D59-B7DE-8F7F203EA30B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>2021-03-19 11:56:56</t>
+  </si>
+  <si>
+    <t>box031003</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -252,10 +264,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -534,7 +546,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -548,12 +560,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -568,7 +580,7 @@
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -596,7 +608,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
@@ -612,7 +626,9 @@
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
@@ -622,7 +638,9 @@
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
